--- a/biology/Histoire de la zoologie et de la botanique/Paul_D._N._Hebert/Paul_D._N._Hebert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_D._N._Hebert/Paul_D._N._Hebert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul David Neil Hebert, né le 6 mai 1947, est un zoologiste et écologue canadien.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a développé le concept du code barre moléculaire chez les animaux[1].
-En 2003, Paul Hebert, du Département de zoologie à l'Université de Guelph, suggère l'utilisation du gène mitochondrial CO1 (Cytochrome oxidase subunit 1) comme code à barres ADN, une espèce animale pouvant être distinguée en séquençant moins de 1000 bases d’ADN mitochondrial à partir d’un échantillon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a développé le concept du code barre moléculaire chez les animaux.
+En 2003, Paul Hebert, du Département de zoologie à l'Université de Guelph, suggère l'utilisation du gène mitochondrial CO1 (Cytochrome oxidase subunit 1) comme code à barres ADN, une espèce animale pouvant être distinguée en séquençant moins de 1000 bases d’ADN mitochondrial à partir d’un échantillon.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Paul D. N. Hebert, Alina Cywinska, Shelley L. Ball et Jeremy R. deWaard, « Biological identifications through DNA barcodes », Proceedings of the Royal Society of London, Londres, Royal Society, b: Biological Sciences, vol. 270, no 1512,‎ 7 février 2003, p. 313-321 (ISSN 0962-8452 et 1471-2954, PMID 12614582, PMCID PMC1691236, DOI 10.1098/rspb.2002.2218, résumé).
 (en) Paul D. N. Hebert, Sujeevan Ratnasingham et Jeremy R. deWaard, « Barcoding animal life : cytochrome c oxidase subunit 1 divergences among closely related species », Proceedings of the Royal Society of London, Londres, Royal Society, b: Biological Sciences, vol. 270, no Suppl. 1,‎ 7 août 2003, S96-S99 (ISSN 0962-8452 et 1471-2954, PMID 12952648, PMCID PMC1698023, DOI 10.1098/rsbl.2003.0025, résumé).
